--- a/biology/Zoologie/Anaxyrus/Anaxyrus.xlsx
+++ b/biology/Zoologie/Anaxyrus/Anaxyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaxyrus est un genre d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaxyrus est un genre d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les  23 espèces de ce genre se rencontrent en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les  23 espèces de ce genre se rencontrent en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 avril 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 avril 2013) :
 Anaxyrus americanus (Holbrook, 1836) - Crapaud d'Amérique
 Anaxyrus baxteri (Porter, 1968)
 Anaxyrus boreas (Baird &amp; Girard, 1852) - Crapaud boréal
@@ -567,7 +583,7 @@
 Anaxyrus speciosus (Girard, 1854)
 Anaxyrus terrestris (Bonnaterre, 1789)
 Anaxyrus woodhousii (Girard, 1854) - Crapaud de Woodhouse
-En 2017, une nouvelle espèce a été décrite (Zootaxa)[3] :
+En 2017, une nouvelle espèce a été décrite (Zootaxa) :
 Anaxyrus williamsi Gordon, Simandle &amp; Tracy</t>
         </is>
       </c>
@@ -596,7 +612,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tschudi, 1845 : Reptilium conspectus quae in Republica Peruana reperiuntur et pleraque observata vel collecta sunt in itinere. Archiv für Naturgeschichte, vol. 11, no 1, p. 150-170 (texte intégral).</t>
         </is>
